--- a/整理知识点.xlsx
+++ b/整理知识点.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t>多个程序共享一份库文件，节省资源</t>
     <rPh sb="0" eb="1">
@@ -1770,6 +1770,269 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>li'ping'xuan'ran</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简化代码</t>
+    <rPh sb="0" eb="1">
+      <t>jian'hua</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai'ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应式cocoa</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'ying'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把按钮调用的函数集合到block里面</t>
+    <rPh sb="0" eb="1">
+      <t>ba</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>an'niu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>diao'yong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>d</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>han'shu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ijhe</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>li'mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相当于block按钮</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'dang'yu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>an'niu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delegate方法集合到block里面</t>
+    <rPh sb="8" eb="9">
+      <t>fang'fa</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ji'he</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>li'mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受到通知执行动作集合到block里面</t>
+    <rPh sb="0" eb="1">
+      <t>jie'shou'dao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tong'zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi'xing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dong'zuo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ji'he</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>li'mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个条件满足，调用方法集合到block里面</t>
+    <rPh sb="0" eb="1">
+      <t>duo'ge</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tiao'jian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>man'zu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>diao'yong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fang'fa</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ji'he</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>li'mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KVO调用代码集合到block里面</t>
+    <rPh sb="3" eb="4">
+      <t>diao'yong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dai'ma</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ji'he</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>li'mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1603</t>
+  </si>
+  <si>
+    <t>1604</t>
+  </si>
+  <si>
+    <t>1605</t>
+  </si>
+  <si>
+    <t>1606</t>
+  </si>
+  <si>
+    <t>提取模块重复部分</t>
+    <rPh sb="0" eb="1">
+      <t>ti'qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mo'kuai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chong'fu'bu'men</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bu'fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切开进行编程，是一种思想</t>
+    <rPh sb="0" eb="1">
+      <t>qie'kai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bian'cheng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi'yi'zhong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>si'xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志模块</t>
+    <rPh sb="0" eb="1">
+      <t>ri'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mo'kuai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法runtime转换 方法</t>
+    <rPh sb="0" eb="1">
+      <t>fang'fa</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhuan'huan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>fang'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">继承，
+分类，  
+增加方法
+</t>
+    <rPh sb="0" eb="1">
+      <t>ji'cheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fen'lei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zeng'jia</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>fang'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在简书</t>
+    <rPh sb="0" eb="1">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jian'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简书</t>
+    <rPh sb="0" eb="1">
+      <t>jian'shu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shu'ben</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2203,10 +2466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="50" defaultRowHeight="74" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2543,6 +2806,9 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
+        <v>13</v>
+      </c>
       <c r="B42" s="2" t="s">
         <v>29</v>
       </c>
@@ -2561,6 +2827,9 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="1">
+        <v>14</v>
+      </c>
       <c r="B45" s="8" t="s">
         <v>30</v>
       </c>
@@ -2569,6 +2838,9 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
+        <v>15</v>
+      </c>
       <c r="B46" s="2" t="s">
         <v>132</v>
       </c>
@@ -2586,288 +2858,373 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D49" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="1" t="s">
+    <row r="50" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="1">
+        <v>16</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="51" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="1" t="s">
+      <c r="C50" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C51" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C52" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C53" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C54" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C55" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="1">
+        <v>17</v>
+      </c>
+      <c r="B57" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="52" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="1" t="s">
+      <c r="D57" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D58" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D59" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D60" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="53" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="1" t="s">
+      <c r="D61" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="54" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="1" t="s">
+      <c r="D65" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="1" t="s">
+    <row r="67" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="1" t="s">
+    <row r="68" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="1" t="s">
+    <row r="69" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="1" t="s">
+    <row r="70" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="1" t="s">
+    <row r="71" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="1" t="s">
+    <row r="72" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="1" t="s">
+    <row r="73" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B73" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="1" t="s">
+    <row r="74" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B74" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="1" t="s">
+    <row r="75" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B75" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="1" t="s">
+    <row r="76" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="1" t="s">
+    <row r="77" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B77" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="1" t="s">
+    <row r="78" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="1" t="s">
+    <row r="79" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B79" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="1" t="s">
+    <row r="80" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B80" s="1" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="81" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="85" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="88" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="90" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="92" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="93" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="94" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="95" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="1" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B97" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B98" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B99" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B100" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B101" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B102" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B103" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B104" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B105" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B106" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B107" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B108" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="1" t="s">
+    <row r="109" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B109" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="1" t="s">
+    <row r="110" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B110" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="1" t="s">
+    <row r="111" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B111" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="100" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="5" t="s">
+    <row r="112" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="101" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="6" t="s">
+    <row r="113" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B113" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="6" t="s">
+    <row r="114" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B114" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="1" t="s">
+    <row r="115" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B115" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-    </row>
-    <row r="104" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="1" t="s">
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B116" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D104" s="7" t="s">
+      <c r="D116" s="7" t="s">
         <v>80</v>
       </c>
     </row>

--- a/整理知识点.xlsx
+++ b/整理知识点.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="-28480" windowWidth="28800" windowHeight="50740" tabRatio="500"/>
+    <workbookView xWindow="-28780" yWindow="-28480" windowWidth="28800" windowHeight="50740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="206">
   <si>
     <t>多个程序共享一份库文件，节省资源</t>
     <rPh sb="0" eb="1">
@@ -401,16 +401,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>you'hua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图详解码</t>
-    <rPh sb="0" eb="1">
-      <t>tu'xiang'jie'ma</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jie'ma</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2036,12 +2026,1087 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>浅拷贝是指针，NSString</t>
+    <rPh sb="0" eb="1">
+      <t>qian</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>kao'bei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi'zhen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深拷贝是 整个复制，指针和对象本身，开辟内存空间</t>
+    <rPh sb="0" eb="1">
+      <t>shen'kao'bei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zheng'ge</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fu'zhi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhi'zhen</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>he</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>dui'xiang</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ben'shen</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>kai'pi</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>nei'cun</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>kong'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修饰变量，只读</t>
+    <rPh sb="0" eb="1">
+      <t>xiu'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian'liang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取全局变量的值，不能创建，用来共享</t>
+    <rPh sb="0" eb="1">
+      <t>huo'qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>quan'ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bian'liang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bu'neng</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>chuang'jian</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>yong'lai</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>gong'xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只分配一份内存，函数区域有效</t>
+    <rPh sb="0" eb="1">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fen'pei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yi'fen</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>nei'cn</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>han'shu'qu'yu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>you'xio</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KVC 通过字符串访问类的属性</t>
+    <rPh sb="4" eb="5">
+      <t>tong'guo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zi'fu'chuan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fang'wen</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>lei</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>d</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shu'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先setter，再下划线，然后没有下划线名称查找，依次查询</t>
+    <rPh sb="0" eb="1">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ran'hou</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xia'hua'xian</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ming'cheng</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>cha'zhao</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yi'ci</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>cha'xun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KVO基于KVC，ISA指针指向一个中间类，在setvalueForKey方法中调用will/didchangeValueForKey方法，然后发送通知给观察者</t>
+    <rPh sb="3" eb="4">
+      <t>ji'yu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhi'zhen</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhi'xiang</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>zhong'jian</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>lei</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>fang'fa</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>diao'yong</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>fang'fa</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ran'hou</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>fa'song</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>togn'zhi</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>guan'cha'zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pod setup,pod file,pod install,pod update,pod no repo update(只添加新增的库)</t>
+    <rPh sb="61" eb="62">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>tian'jia</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>xin'zeng</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>d</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ku</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击 tap
+清扫  swipe
+长按 longPress
+平移 pan
+捏合 pinch
+旋转 rotate
+屏幕边缘 screenEdge</t>
+    <rPh sb="0" eb="1">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qing'sao</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>chang'an</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ping'yi</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>nie'he</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>xuan'zhuan</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ping'mu'bian'yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NSHTTPCookieStorage *cook = [NSHTTPCookieStorage sharedHTTPCookieStorage];
+[cook setCookieAcceptPolicy:NSHTTPCookieAcceptPolicyAlways];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端cookie存储方案设置为always</t>
+    <rPh sb="0" eb="1">
+      <t>ke'hu'duan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>cun'chu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>fang'an</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>she'zhi'ch</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问小蘑菇</t>
+    <rPh sb="0" eb="1">
+      <t>wen</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xiao'mo'gu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像解码</t>
+    <rPh sb="0" eb="1">
+      <t>tu'xing</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xiang'su</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFMPEG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频解码成一帧帧图片，根据时间播放出来</t>
+    <rPh sb="0" eb="1">
+      <t>shi'pin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'ma</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi'zhen'zhen</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhen'shu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhen'shu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tu'pian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bo'fang'chu'lai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIImage--CGImage-CGContex编辑</t>
+    <rPh sb="25" eb="26">
+      <t>bian'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局队列开启异步线程，异步线程中开启imageContext在指定的rect绘制，最后在主队列返回图像</t>
+    <rPh sb="0" eb="1">
+      <t>quan'ju'dui'lie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>kai'qi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yi'bu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xian'cheng</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yi'bu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xian'cheng</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>kai'qi</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>zhi'ding</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>d</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>hui'zhi</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>zui'hou</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>zhu'dui'lie</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>fan'hui</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>tu'xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给对象或者类发送消息</t>
+    <rPh sb="0" eb="1">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>dui'xiang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>huo'zhe</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fa'song'xiao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiao'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类加载的时候交换方法</t>
+    <rPh sb="0" eb="1">
+      <t>lei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jia'zai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>d</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>sih'hou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jiao'huan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fang'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置关联对象 set assiciate object</t>
+    <rPh sb="0" eb="1">
+      <t>she'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan'lian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dui'xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add (method var property)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地通知</t>
+    <rPh sb="0" eb="1">
+      <t>ben'di'tong'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程通知</t>
+    <rPh sb="0" eb="1">
+      <t>yuan'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tong'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台和退出才能收到通知</t>
+    <rPh sb="0" eb="1">
+      <t>hou'tai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>he</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tui'chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>neng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shou'dao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>togn'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建通知对象
+设置通知属性和内容
+shareAPPlication 调用通知
+移除通知</t>
+    <rPh sb="0" eb="1">
+      <t>chuang'jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tong'zhi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dui'xiang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>she'hzi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tong'zhi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shu'xing</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>he</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>nei'rong</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>diao'yong'tong'zhi</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>yi'chu</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>tong'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.注册后从服务器获取device token（唯一）</t>
+    <rPh sb="2" eb="3">
+      <t>zhu'ce</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cong'fu'wu'qi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>huo'qu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>wei'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.设置通知类型，注册远程通知，</t>
+    <rPh sb="2" eb="3">
+      <t>she'zhi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tong'zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>lei'xing</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhu'ce</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yuan'cheng</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>tong'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.存储到本地，判断前后是否一致</t>
+    <rPh sb="2" eb="3">
+      <t>cun'chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ben'di</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>pan'duan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qian'hou</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shi'fou'yi'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.上传到服务器</t>
+    <rPh sb="2" eb="3">
+      <t>shang'chuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu'wu'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.服务器根据DT推送通知到APNS</t>
+    <rPh sb="2" eb="3">
+      <t>fu'wu'qi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tui'dong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>song</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tong'zhi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cocoachina.com/ios/20150318/11364.html</t>
+  </si>
+  <si>
+    <t>6，7和8系统通知的变化是 UIRemoteNotification 和 UIUserNotificationSetting.type</t>
+    <rPh sb="3" eb="4">
+      <t>he</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tong'zhi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>d</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bian'hua</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>he</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把AFNetworking封装起来，GET,POST留下subURL和参数，两个block,然后在这个基础上抽取重复代码，一层一层封装</t>
+    <rPh sb="0" eb="1">
+      <t>ba</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>feng'zhuang</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>qi'lai</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>liu'xai</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>he</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>can'shu</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>liang'ge</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ran'hou</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>zhe'ge</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ji'chu</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>chou'qu</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>chong'fu</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>dai'ma</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>yi'ceng</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>yi'ceng</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>feng'zhuang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用runtime获取结构体的ivars，运用KVC进行设置，根据不同 情况进行处理</t>
+    <rPh sb="0" eb="1">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>huo'qu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jie'ghou'ti</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>d</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>yun'yong</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>she'zhi</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>gen'ju'bu'tong</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>qing'kuang</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>jn'xing</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>chu'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都是继承于UIResponder</t>
+    <rPh sb="0" eb="1">
+      <t>dou'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'cheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yu'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>load
+initialize
+init
+alloc
+class
+isKindOfClass
+copy
+description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>objc_msgSend(receiver,sel,args1,args2...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>load是在文件被程序加载的时候调用，在main函数之前
+load方法父类先调用，再调用子类
+线程安全，切换方法在这里实现</t>
+    <rPh sb="4" eb="5">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wen'jian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>cheng'xu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jia'zai</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>d</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shi'hou</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>diao'yong</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>han'shu</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>zhi'qian</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>fang'fa</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>fu'lei</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>diao'yong</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>diao'yong</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>zi'lei</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>xian'cheng</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>an'quan</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>qie'huan</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>fang'fa</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>zhe'li</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>shi'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次调用方法，才会执行initialize，惰性方法，只会执行一次</t>
+    <rPh sb="0" eb="1">
+      <t>di'yi'ci</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>diao'yong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fang'fa</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhi'xing</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>duo'xing'fang'fa</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>zhi'hui</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>zhi'xing'yi'ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组 字典 字符串 数据类型 日期 线程 socket，可以和core foundation 桥接</t>
+    <rPh sb="0" eb="1">
+      <t>shu'zu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zi'dian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zi'fu'chuan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>lei'xing</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ri'qi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>xian'cheng</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>he</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>qiao'jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触摸事件的传递，hittest是接收点击事件的view</t>
+    <rPh sb="0" eb="1">
+      <t>chu'mo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chuan'di</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>jie'shou</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边缘传递给scrollView</t>
+    <rPh sb="0" eb="1">
+      <t>bian'yuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chuan'di'gei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果有接受到触摸事件，传递给scrolView</t>
+    <rPh sb="0" eb="1">
+      <t>ru'guo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jie'shou'dao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chu'mo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>chuan'di</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>gei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同hittext原理</t>
+    <rPh sb="0" eb="1">
+      <t>tong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yuan'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏好设置 NSuserDefault 可以存储 NSDate array dictionary nsstring nsnumber NSDATA</t>
+    <rPh sb="0" eb="1">
+      <t>pian'hao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>she'zhi</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>cun'chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本质就是plist</t>
+    <rPh sb="0" eb="1">
+      <t>ben'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiu'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2089,6 +3154,11 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2122,7 +3192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2145,6 +3215,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2466,10 +3540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E116"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108:B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="50" defaultRowHeight="74" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2588,18 +3662,18 @@
         <v>22</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -2610,26 +3684,26 @@
         <v>23</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -2640,10 +3714,10 @@
         <v>24</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -2651,29 +3725,29 @@
         <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -2681,18 +3755,18 @@
         <v>8</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D25" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -2700,20 +3774,20 @@
         <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D27" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D28" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -2724,15 +3798,15 @@
         <v>25</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -2743,30 +3817,30 @@
         <v>26</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D32" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D33" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D34" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D35" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -2777,32 +3851,32 @@
         <v>27</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D37" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D38" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D40" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D41" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -2813,17 +3887,17 @@
         <v>29</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D43" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D44" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -2834,7 +3908,7 @@
         <v>30</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -2842,25 +3916,25 @@
         <v>15</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D47" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D48" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D49" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -2871,56 +3945,56 @@
         <v>32</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="E50" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="E51" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C53" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C55" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -2931,25 +4005,25 @@
         <v>33</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D58" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D59" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D60" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -2957,275 +4031,458 @@
         <v>34</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="68" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="1" t="s">
+      <c r="D67" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D68" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="69" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="1" t="s">
+      <c r="D69" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="70" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="1" t="s">
+      <c r="D72" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D73" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B74" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="71" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="1" t="s">
+      <c r="D74" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" ht="311" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B75" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="72" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="1" t="s">
+      <c r="D75" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="73" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="1" t="s">
+      <c r="D76" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="74" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="1" t="s">
+      <c r="D77" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B79" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="75" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="1" t="s">
+      <c r="D79" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D80" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="76" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="1" t="s">
+      <c r="D81" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D82" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D83" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D84" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B85" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="77" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="1" t="s">
+      <c r="D85" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" ht="168" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D86" s="1"/>
+      <c r="E86" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E87" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F88" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F89" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F90" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F91" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F92" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B93" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="78" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="1" t="s">
+      <c r="D93" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B94" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="79" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="1" t="s">
+      <c r="D94" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B95" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="80" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="1" t="s">
+    <row r="96" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B96" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="81" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="1" t="s">
+      <c r="D96" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B97" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="82" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="1" t="s">
+      <c r="D97" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" ht="332" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B98" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="83" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="1" t="s">
+      <c r="D98" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B99" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="84" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="1" t="s">
+      <c r="D99" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B100" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="85" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="1" t="s">
+      <c r="D100" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D101" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B102" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="86" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="1" t="s">
+      <c r="D102" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B103" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="87" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="1" t="s">
+      <c r="D103" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B104" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="88" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="1" t="s">
+      <c r="D104" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B105" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="89" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="1" t="s">
+      <c r="D105" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B108" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="90" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="1" t="s">
+    <row r="109" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B109" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="91" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="1" t="s">
+    <row r="110" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B110" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="92" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="1" t="s">
+    <row r="111" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B111" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="93" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="1" t="s">
+    <row r="112" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B112" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="94" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="1" t="s">
+    <row r="113" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B113" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B114" s="1" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B106" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B107" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B108" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B109" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="113" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B113" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B114" s="6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="115" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B115" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
+        <v>65</v>
+      </c>
     </row>
     <row r="116" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B116" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B117" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B118" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B119" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B120" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B121" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B122" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B123" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B124" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B125" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B126" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B127" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B128" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+    </row>
+    <row r="129" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B129" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D129" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D116" s="7" t="s">
-        <v>80</v>
+    </row>
+    <row r="130" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B130" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B131" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B132" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B133" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B134" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/整理知识点.xlsx
+++ b/整理知识点.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28780" yWindow="-28480" windowWidth="28800" windowHeight="50740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="244">
   <si>
     <t>多个程序共享一份库文件，节省资源</t>
     <rPh sb="0" eb="1">
@@ -460,38 +460,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据层的封装</t>
-    <rPh sb="0" eb="1">
-      <t>shu'ju'ceng</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>d</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>feng'zhuang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型封装用的库</t>
-    <rPh sb="0" eb="1">
-      <t>mo'xing</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>feng'zhuang</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>yong</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>d</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ku</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>YYMODEL原理</t>
     <rPh sb="7" eb="8">
       <t>yuan'li</t>
@@ -675,13 +643,6 @@
     <t>富文本 core text</t>
     <rPh sb="0" eb="1">
       <t>fu'wen'ben</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音视频</t>
-    <rPh sb="0" eb="1">
-      <t>yin'shi'pin</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3098,6 +3059,571 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>jiu'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈是由系统管理，先进后出
+堆程序员手动管理，有可能会内存泄露</t>
+    <rPh sb="0" eb="1">
+      <t>zhan</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>guan'li</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xian'jin'hou'chu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>cheng'xu'yuan</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>shou'dong</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>guan'li</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>you'ke'neng</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>nei'cun'xie'kou</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>xie'lou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码：addPercent UTF8
+解码：replacingPercent UTF8</t>
+    <rPh sb="0" eb="1">
+      <t>bian'ma</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>jie'ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滤镜生成二维码图片</t>
+    <rPh sb="0" eb="1">
+      <t>lv'jing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>sheng'cheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>er'wei'ma</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tu'pian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MVVM 知乎</t>
+    <rPh sb="5" eb="6">
+      <t>zhi'hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIKit可以生成框架，但内容不能改变
+CG/Quartz 可以画任何东西，但是要计算全部细节
+CT 又有框架 又能绘文字</t>
+    <rPh sb="5" eb="6">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>sheng'cheng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>kuang'jia</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>dan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>nei'rong</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bu'neng</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>gai'bian</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>hua</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ren'he</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>dong'xi</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>dan'shi</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ji'suan</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>quan'bu</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>xi'jie</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>you</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>you</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>kuang'jia</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>you'neng</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>hui'hua</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>wen'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text kit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对CT的进一步封装，可以混排表情</t>
+    <rPh sb="0" eb="1">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>d</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jin'yi'bu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>feng'hzuang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>biao'qing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换坐标
+先绘制文字和图片占位符，
+通过代理设置图片
+计算出Ctrun的尺寸，画图片</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan'huan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zuo'biao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hui'zhi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wen'zi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>he</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tu'pian</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhan'wei'fu</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>tong'guo</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>dai'li</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>she'zhi</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>tu'pian</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ji'suan</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>chi'cun</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>hua'tu'pian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.jianshu.com/p/6db3289fb05d</t>
+  </si>
+  <si>
+    <t>生成属性和下划线变量</t>
+    <rPh sb="0" eb="1">
+      <t>sheng'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'xing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>he</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xia'hua'xian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bian'liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成指定名字下划线变量</t>
+    <rPh sb="0" eb="1">
+      <t>sheng'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'ding</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ming'zi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xia'hua'xian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bian'liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟释放</t>
+    <rPh sb="0" eb="1">
+      <t>yan'chi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'fang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>synchronized是同步锁（互斥锁），一次性只能一个访问</t>
+    <rPh sb="12" eb="13">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>tong'bu'suo</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>hu'chi'suo</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>yi'ci'xing</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>zhi'neng</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>yi'g</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>fang'wen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NSLock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NSLConditionLock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁加条件</t>
+    <rPh sb="0" eb="1">
+      <t>suo</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tiao'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispatch_semaphore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效率最高</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'lv'zui'gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSSpinLock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自旋锁</t>
+    <rPh sb="0" eb="1">
+      <t>zi'xuan'suo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小便</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'bian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上厕所关门</t>
+    <rPh sb="0" eb="1">
+      <t>shang'ce'suo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>guan'men</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pthread_mutex(互斥)</t>
+    <rPh sb="14" eb="15">
+      <t>hu'chi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据信号量来判断</t>
+    <rPh sb="0" eb="1">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin'hao'liang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>pan'duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待不消耗CPU资源</t>
+    <rPh sb="0" eb="1">
+      <t>deng'dai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu'xiao'hua'o</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiao'hao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cocoachina.com/ios/20160707/16957.html</t>
+  </si>
+  <si>
+    <t>线程添加依赖</t>
+    <rPh sb="0" eb="1">
+      <t>xian'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tian'jia</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yi'lai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NSOPeration dependency添加依赖</t>
+    <rPh sb="22" eb="23">
+      <t>tian'jia</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>yi'lai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据层的封装（数据库方面coreData）</t>
+    <rPh sb="0" eb="1">
+      <t>shu'ju'ceng</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>d</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>feng'zhuang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shu'ju'ku</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fang'mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型封装用的库 YYMODEL之类</t>
+    <rPh sb="0" eb="1">
+      <t>mo'xing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>feng'zhuang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>d</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ku</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zhi'lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音视频（东方头条）</t>
+    <rPh sb="0" eb="1">
+      <t>yin'shi'pin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dong'fang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tou'tiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目优化</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'mu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tableView优化</t>
+    <rPh sb="9" eb="10">
+      <t>you'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aspect  三方库</t>
+    <rPh sb="8" eb="9">
+      <t>san'fang'ku</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分批下发，测试</t>
+    <rPh sb="0" eb="1">
+      <t>fen'pi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xia'fa</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ce'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环信-XMPP-SOCKET</t>
+    <rPh sb="0" eb="1">
+      <t>huan'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSPatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下发脚本</t>
+    <rPh sb="0" eb="1">
+      <t>xia'fa</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiao'ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jspatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究一下</t>
+    <rPh sb="0" eb="1">
+      <t>yan'jiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi'xia</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3192,7 +3718,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3219,6 +3745,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3540,10 +4072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F134"/>
+  <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108:B134"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="50" defaultRowHeight="74" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3662,18 +4194,18 @@
         <v>22</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -3684,26 +4216,26 @@
         <v>23</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -3714,10 +4246,10 @@
         <v>24</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -3725,29 +4257,29 @@
         <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -3755,18 +4287,18 @@
         <v>8</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D25" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -3774,20 +4306,20 @@
         <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D27" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D28" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -3798,15 +4330,15 @@
         <v>25</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -3817,30 +4349,30 @@
         <v>26</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D32" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D33" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D34" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D35" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -3851,32 +4383,32 @@
         <v>27</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D37" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D38" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D40" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D41" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -3887,17 +4419,17 @@
         <v>29</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D43" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D44" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -3908,7 +4440,7 @@
         <v>30</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -3916,25 +4448,25 @@
         <v>15</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D47" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D48" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D49" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -3945,56 +4477,56 @@
         <v>32</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C53" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C55" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -4005,25 +4537,28 @@
         <v>33</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D58" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D59" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D60" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -4031,7 +4566,7 @@
         <v>34</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -4039,7 +4574,7 @@
         <v>35</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -4052,12 +4587,12 @@
         <v>37</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D68" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -4065,23 +4600,23 @@
         <v>38</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="70" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -4089,15 +4624,15 @@
         <v>39</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="73" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D73" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -4105,7 +4640,7 @@
         <v>40</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="2:5" ht="311" customHeight="1" x14ac:dyDescent="0.15">
@@ -4113,7 +4648,7 @@
         <v>41</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.2">
@@ -4121,10 +4656,10 @@
         <v>42</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.2">
@@ -4132,18 +4667,18 @@
         <v>43</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>171</v>
+        <v>236</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="79" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -4151,12 +4686,12 @@
         <v>44</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D80" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="81" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -4164,22 +4699,22 @@
         <v>45</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D82" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="83" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D83" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="84" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D84" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="85" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -4187,55 +4722,55 @@
         <v>46</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="86" spans="2:6" ht="168" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D86" s="1"/>
       <c r="E86" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="87" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E87" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F88" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="89" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F89" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F90" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="91" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F91" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="92" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F92" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="93" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -4243,249 +4778,380 @@
         <v>47</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="94" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="8" t="s">
-        <v>48</v>
+        <v>231</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="95" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="8" t="s">
-        <v>49</v>
+        <v>232</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="97" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="98" spans="2:6" ht="332" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="99" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B99" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="101" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D101" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="102" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="104" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B104" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B105" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B108" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B109" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D109" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E105" s="1" t="s">
+    </row>
+    <row r="110" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B110" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="108" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B108" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="109" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B109" s="1" t="s">
+    <row r="111" spans="2:6" ht="113" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B111" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="110" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="1" t="s">
+      <c r="D111" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B112" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B113" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B114" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B115" s="8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="111" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="1" t="s">
+      <c r="D115" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B116" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="112" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B112" s="1" t="s">
+      <c r="D116" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B117" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="113" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B113" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B114" s="1" t="s">
+      <c r="D117" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B118" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="115" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B115" s="1" t="s">
+      <c r="D118" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D119" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D120" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D121" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D122" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D123" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D124" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E124" s="11"/>
+    </row>
+    <row r="125" spans="2:7" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B125" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="116" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B116" s="1" t="s">
+    <row r="126" spans="2:7" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B126" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="117" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B117" s="1" t="s">
+    <row r="127" spans="2:7" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B127" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="118" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B118" s="1" t="s">
+    <row r="128" spans="2:7" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B128" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="119" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B119" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="120" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B120" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="121" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B121" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="122" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B122" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="123" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B123" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="124" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B124" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="125" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B125" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="126" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B126" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="127" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B127" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="128" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B128" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
     </row>
     <row r="129" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B129" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D129" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B130" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B131" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B132" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B133" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B134" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B135" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B136" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B137" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B138" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="130" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="5" t="s">
+    <row r="139" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B139" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="131" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B131" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="132" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B132" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="133" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B133" s="1" t="s">
+    <row r="140" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B140" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="134" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B134" s="1" t="s">
-        <v>78</v>
+    <row r="141" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B141" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B142" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B143" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B144" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E123:E124"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/整理知识点.xlsx
+++ b/整理知识点.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="-21140" windowWidth="38380" windowHeight="14560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="273">
   <si>
     <t>多个程序共享一份库文件，节省资源</t>
     <rPh sb="0" eb="1">
@@ -298,10 +298,6 @@
   </si>
   <si>
     <t>runloop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>runtime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1659,16 +1655,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查书去</t>
-    <rPh sb="0" eb="1">
-      <t>cha'shu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>qu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>优化tableView</t>
     <rPh sb="0" eb="1">
       <t>you'hua</t>
@@ -3618,12 +3604,503 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>研究一下</t>
-    <rPh sb="0" eb="1">
-      <t>yan'jiu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yi'xia</t>
+    <t>RAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FASTLANE 自动打包</t>
+    <rPh sb="9" eb="10">
+      <t>zi'dong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>da'bao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对称算法</t>
+    <rPh sb="0" eb="1">
+      <t>dui'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>suan'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合算法</t>
+    <rPh sb="0" eb="1">
+      <t>zu'he</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>suan'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击返回顶部原理</t>
+    <rPh sb="0" eb="1">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fan'hui</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ding'bu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yuan'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interRect怎么实现？</t>
+    <rPh sb="9" eb="10">
+      <t>zen'm</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shi'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>didLoad 让VM发送请求
+内部处理返回的数据，成功后调用block，进行reloadData，
+cellforRow方法里 直接给VM indexPath，VM返回模型给cell
+cell在模型的setter方法里面进行布局</t>
+    <rPh sb="8" eb="9">
+      <t>ra</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>fa'song</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>qing'qiu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>nei'bu</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>chu'li</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>fan'hui</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>d</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>cheng'gong</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>diao'yong</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>fang'fa</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>li</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>zhi'jie</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>fan'hui</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>mo'xing</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>mo'xing</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>d</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>fang'fa</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>li'mian</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>bu'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成支付宝</t>
+    <rPh sb="0" eb="1">
+      <t>ji'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'fu'bao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加依赖库</t>
+    <rPh sb="0" eb="1">
+      <t>tian'jia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi'lai'ku</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引入头文件 SDK.h</t>
+    <rPh sb="0" eb="1">
+      <t>yin'ru</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tou'wen'jan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.0以后的系统调用新接口</t>
+    <rPh sb="3" eb="4">
+      <t>yi'hou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>d</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>diao'yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置官网申请APP ID</t>
+    <rPh sb="0" eb="1">
+      <t>she'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan'wag</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shen'qing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信支付</t>
+    <rPh sb="0" eb="1">
+      <t>wei'xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网生成APPID</t>
+    <rPh sb="0" eb="1">
+      <t>guan'wang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>sheng'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引入库和头文件</t>
+    <rPh sb="0" eb="1">
+      <t>yin'ru</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ku</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>he</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tou'wen'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户发起支付请求</t>
+    <rPh sb="0" eb="1">
+      <t>shang'hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fa'qi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi'fu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qing'qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付结果回调</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'fu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'guo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hui'diao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C语言在编译时已经决定调用顺序，执行即可</t>
+    <rPh sb="1" eb="2">
+      <t>yu'yan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bian'yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jue'ding</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>diao'yong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shun'xu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zhi'xing</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ji'ke</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OC编译时不能决定调用哪一个函数，运行时根据名称找函数
+（发送消息）</t>
+    <rPh sb="2" eb="3">
+      <t>bian'yi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bu'neng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jue'ding</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>diao'yong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>na'yi'ge</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>han'shu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>yun'xing'shi</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ming'ch'n</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>zhao</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>han'shu</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>fa'song</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>xiao'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给对象发消息，sel通过method name找到方法指针进行调用</t>
+    <rPh sb="0" eb="1">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>dui'xiang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fa'xiao'xi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tong'guo</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>zhao'dao</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>fang'fa</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>zhi'zhen</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>diao'yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建对象</t>
+    <rPh sb="0" eb="1">
+      <t>chuang'jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dui'xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载请求</t>
+    <rPh sb="0" eb="1">
+      <t>jia'zai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qing'qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身方法</t>
+    <rPh sb="0" eb="1">
+      <t>zi'shen</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新 停止 后退 前进</t>
+    <rPh sb="0" eb="1">
+      <t>shua'xin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ting'zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hou'tui</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>qian'jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理方法</t>
+    <rPh sb="0" eb="1">
+      <t>dai'li'fang'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始加载</t>
+    <rPh sb="0" eb="1">
+      <t>kai'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia'zai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载错误</t>
+    <rPh sb="0" eb="1">
+      <t>jia'zai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cuo'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可以加载某个网页</t>
+    <rPh sb="0" eb="1">
+      <t>shi'fou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jia'zai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>mou'ge</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wang'ye</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截取URL和JS交互</t>
+    <rPh sb="0" eb="1">
+      <t>jie'qu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>he</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jiao'hu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3718,7 +4195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3746,11 +4223,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4072,10 +4555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G144"/>
+  <dimension ref="A1:G170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="C127" sqref="C127"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="F170" sqref="F170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="50" defaultRowHeight="74" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4194,18 +4677,18 @@
         <v>22</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -4216,26 +4699,26 @@
         <v>23</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -4246,10 +4729,10 @@
         <v>24</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -4257,29 +4740,29 @@
         <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -4287,18 +4770,18 @@
         <v>8</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D25" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -4306,20 +4789,20 @@
         <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D27" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D28" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -4330,15 +4813,15 @@
         <v>25</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -4349,30 +4832,30 @@
         <v>26</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D32" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D33" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D34" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D35" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -4383,32 +4866,32 @@
         <v>27</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D37" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D38" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D40" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D41" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -4419,95 +4902,92 @@
         <v>29</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D43" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D44" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
-        <v>14</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="1">
-        <v>15</v>
-      </c>
-      <c r="B46" s="2" t="s">
+      <c r="D46" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D47" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D48" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="1">
+        <v>16</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D49" s="3" t="s">
         <v>132</v>
       </c>
+      <c r="E49" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="50" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="1">
-        <v>16</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C50" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="52" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C53" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>140</v>
@@ -4515,32 +4995,29 @@
     </row>
     <row r="54" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="1">
+        <v>17</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D57" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C55" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="1">
-        <v>17</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -4548,56 +5025,59 @@
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D59" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D60" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E60" s="1" t="s">
+    </row>
+    <row r="64" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D65" s="3" t="s">
+    </row>
+    <row r="66" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D67" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="1" t="s">
+    <row r="68" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D68" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="2" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>156</v>
@@ -4613,139 +5093,136 @@
     </row>
     <row r="71" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="E71" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="72" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="D72" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E72" s="1" t="s">
+    </row>
+    <row r="73" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B73" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="73" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D73" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:5" ht="311" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" ht="311" customHeight="1" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="76" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D76" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E76" s="1" t="s">
+      <c r="D76" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B77" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="77" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>236</v>
+      <c r="D77" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="2" t="s">
-        <v>169</v>
+        <v>43</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E78" s="1" t="s">
+    </row>
+    <row r="79" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D79" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="79" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="2" t="s">
+    <row r="80" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B80" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D80" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="80" spans="2:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D80" s="3" t="s">
+    <row r="81" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D81" s="3" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="82" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D82" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D83" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="83" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D83" s="3" t="s">
+    <row r="84" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B84" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" ht="168" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D85" s="1"/>
+      <c r="E85" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="84" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D84" s="1" t="s">
+      <c r="F85" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E86" s="1" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" ht="168" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D86" s="1"/>
-      <c r="E86" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="87" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E87" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="F87" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -4755,12 +5232,12 @@
     </row>
     <row r="89" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F89" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F90" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="91" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -4769,29 +5246,32 @@
       </c>
     </row>
     <row r="92" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F92" s="1" t="s">
-        <v>188</v>
+      <c r="B92" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="93" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="2" t="s">
-        <v>47</v>
+      <c r="B93" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
     </row>
     <row r="94" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>168</v>
+        <v>230</v>
       </c>
     </row>
     <row r="95" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="8" t="s">
-        <v>232</v>
+      <c r="B95" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -4799,23 +5279,23 @@
         <v>48</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" ht="332" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" ht="332" customHeight="1" x14ac:dyDescent="0.15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="99" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -4823,20 +5303,20 @@
         <v>51</v>
       </c>
       <c r="D99" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D100" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="100" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="2" t="s">
+    <row r="101" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B101" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D101" s="3" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D101" s="3" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="102" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -4844,7 +5324,13 @@
         <v>53</v>
       </c>
       <c r="D102" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E102" s="1" t="s">
         <v>196</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -4852,13 +5338,7 @@
         <v>54</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E103" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="104" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -4866,18 +5346,18 @@
         <v>55</v>
       </c>
       <c r="D104" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="105" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="2" t="s">
+    <row r="107" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B107" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D107" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="108" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -4885,7 +5365,7 @@
         <v>57</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="109" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -4893,58 +5373,61 @@
         <v>58</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="110" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" ht="113" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B110" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="111" spans="2:6" ht="113" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E110" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B111" s="2" t="s">
-        <v>60</v>
+        <v>206</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E111" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>211</v>
-      </c>
     </row>
     <row r="112" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B112" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>209</v>
+      <c r="B112" s="8" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="113" spans="2:7" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B113" s="8" t="s">
-        <v>233</v>
+        <v>30</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="114" spans="2:7" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B114" s="8" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="115" spans="2:7" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>235</v>
+        <v>210</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="116" spans="2:7" ht="74" customHeight="1" x14ac:dyDescent="0.15">
@@ -4954,77 +5437,71 @@
       <c r="D116" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>213</v>
-      </c>
     </row>
     <row r="117" spans="2:7" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B117" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D117" s="3" t="s">
-        <v>214</v>
+      <c r="D117" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="118" spans="2:7" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B118" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>228</v>
+      <c r="D118" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="119" spans="2:7" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D119" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="120" spans="2:7" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D120" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="121" spans="2:7" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D121" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="122" spans="2:7" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D122" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
+      </c>
+      <c r="E122" s="13" t="s">
+        <v>218</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="123" spans="2:7" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D123" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E123" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>226</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="E123" s="13"/>
     </row>
     <row r="124" spans="2:7" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D124" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E124" s="11"/>
+      <c r="B124" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="125" spans="2:7" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B125" s="1" t="s">
@@ -5052,105 +5529,253 @@
       </c>
     </row>
     <row r="130" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B130" s="1" t="s">
+      <c r="B130" s="8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="131" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B131" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>242</v>
+      <c r="D130" s="3" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="132" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="133" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B133" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="D133" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="134" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B134" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>239</v>
+        <v>76</v>
+      </c>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="135" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B135" s="8" t="s">
+      <c r="B135" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B136" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="136" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B136" s="1" t="s">
+    </row>
+    <row r="137" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B137" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B138" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D136" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="137" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="138" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B138" s="12" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="139" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B139" s="6" t="s">
-        <v>81</v>
+      <c r="B139" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="140" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B140" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="141" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B141" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="142" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B142" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="143" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B143" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="144" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B144" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D144" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" ht="252" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B141" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" s="12" customFormat="1" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+    </row>
+    <row r="143" spans="2:4" s="12" customFormat="1" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B143" s="14"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+    </row>
+    <row r="144" spans="2:4" s="12" customFormat="1" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B144" s="14"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+    </row>
+    <row r="145" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B145" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B146" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B147" s="1" t="s">
         <v>241</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B148" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B149" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B150" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B151" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B152" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B153" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D154" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D155" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D156" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B157" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D158" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D159" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D160" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B161" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D162" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D163" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B164" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E165" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E166" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E167" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F168" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F169" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F170" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="E122:E123"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
